--- a/pyexecl/signalarea/whitelist.xlsx
+++ b/pyexecl/signalarea/whitelist.xlsx
@@ -560,3528 +560,4846 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B439"/>
+  <dimension ref="A1:C439"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>110120067392</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>110120068646</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>110120069937</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>110120068857</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>110120069954</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>110120068842</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>110120069798</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>110120068655</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>110120068642</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>110120068652</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>110120068843</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>110120069814</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>110120069282</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>110120068651</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>110120068645</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>110120069927</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>110120067919</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>110120069286</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>110120070219</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>110120068654</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>110120067737</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>110120069285</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>110120069278</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>110120069283</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>110120067730</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>110120069359</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>110120069360</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>110120069932</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>110120067723</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>110120069951</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>110120069941</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>110120069358</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>110120069375</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>110120067734</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>110120069369</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>110120067722</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>110120069371</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>110120067735</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>110120069319</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>110120069374</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>110120069560</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>110120067733</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>110120069377</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>110120069116</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>110120069326</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>110120069318</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>110120069322</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>110120070027</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>110120069956</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>110120069111</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>110110037863</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>110120068855</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>110120068847</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>110120069920</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>110120068845</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>110120068846</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>110120068854</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>110120067379</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>110120069804</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>110120068643</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>110120070024</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>110120070222</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>110120069321</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>110120070223</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>110120071721</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>110120071715</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>110120071712</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>110120071709</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>110120071714</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>110120071708</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>110120071710</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>110120071726</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>110120071713</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>110120071711</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>110120069579</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>110120071724</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>110120071717</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>110120071718</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>110120069311</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>110120071719</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>110120071720</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>110120071723</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>110120071727</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>110120071722</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>110120071725</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>110120069582</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>110120071171</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>110120071784</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>110120071196</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>110120071359</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>110120071047</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>110120071533</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>110120071603</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>110120071191</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>110120071179</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>110120071353</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>110120069584</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>110120068191</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>110120068189</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>110120069933</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>110120068794</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>110120068834</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>110120068786</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>110120067630</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>110120068836</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>110120068793</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>110120067632</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>110120068796</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>110120069036</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>110120067918</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110120068184</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110120067629</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>110120069596</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>110120068183</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>110120067913</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>110120067920</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>110120069020</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>110120069158</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>110120067634</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>110120067929</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>110120068647</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>110120069033</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>110120068190</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>110120067623</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>110120067635</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>110120069918</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>110120068313</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>110120068391</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>110120069126</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>110120068912</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>110120069127</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>110120068882</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>110110133106</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>110120068945</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>110120068887</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>110120068469</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>110110037687</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>110120068724</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>110120068830</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>110120069928</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>110120068725</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>110120068727</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>110120068657</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>110120068732</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>110120068736</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>110120068639</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>110120068656</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>110120068178</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>110120068737</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>110120068186</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>110120068734</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>110120068733</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>110120069313</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>110120068187</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>110120067636</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>110120067622</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>110120067633</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>110120068182</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>110120067628</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>110120068185</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>110120068180</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>110120068179</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>110120068181</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>110120068716</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>110120068714</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>110120069571</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>110120068706</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>110120068700</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>110120068708</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>110120067876</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>110120069802</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>110120069942</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>110120067874</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>110120069542</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>110120069103</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>110120067858</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>110120067866</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>110120069364</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>110120069572</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>110120069115</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>110110035032</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>110120069366</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>110120069949</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>110120067859</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>110120069947</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>110120068715</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>110120069376</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>110120069284</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>110110037754</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>110120067396</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>110120067393</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>110120069587</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>110120068299</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>110120067395</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>110120067385</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>110120067386</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>110120067394</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>110120069815</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>110120070232</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>110120068976</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>110120069303</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>110120069801</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>110120068302</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>110120067382</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>110120069566</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>110120067397</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>110120068300</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>110120067387</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>110120067381</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>110120067378</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>110120067388</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>110120067389</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>110120067380</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>110120067390</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>110120067391</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>110120050534</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>110120063883</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>110120062570</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>110120063014</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>110120052532</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>110120051876</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>110120061315</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>110120063009</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>110120062240</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>110120062583</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>110120050533</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>110120061637</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>110120050753</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>110120063007</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>110120063984</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>110120062616</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>110120063340</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>110120063344</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>110120051879</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>110120063075</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>110120063275</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>110120050707</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>110120051492</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>110120051481</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>110120063350</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>110120062238</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>110120051877</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>110120063008</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>110120062773</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>110120061645</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>110120051483</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>110120062575</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>110120061621</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>110120051445</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>110120063988</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>110120051608</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>110120063011</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>110120063012</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>110120061848</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>110120050524</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>110120050530</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>110120062586</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>110120051458</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>110120069583</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>110120069129</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>110120068252</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>110120068624</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>110120068944</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>110120067927</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>110120069163</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>110120067922</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>110120068196</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>110120068192</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>110120068197</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>110120068193</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>110120068188</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>110120069317</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>110120068897</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>110120069137</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>110120068889</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>110120068618</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>110120068992</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>110120068396</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>110120068383</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>110120068987</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>110120069165</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>110120067907</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>110120067937</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>110120067928</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>110120069589</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>110120067934</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>110120069035</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>110120068947</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>110120068884</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>110120069128</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>110120068622</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>110120068018</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>110120069169</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>110120068902</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>110120068222</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>110120068386</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>110120069175</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>110110037611</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>110120069935</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>110120067930</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>110120067931</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>110120068311</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>110120068380</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>110120068381</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>110120067646</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>110120068231</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>110120068392</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>110120068310</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>110120067904</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>110120068623</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>110120068894</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>110120069934</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>110120069034</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>110120068195</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>110120068801</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>110120068805</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>110120067868</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>110120068701</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>110120067862</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>110120069100</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>110120068807</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>110120068798</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>110120068711</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>110120067867</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>110120069925</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>110120067718</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>110120067721</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>110120069957</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>110120069281</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>110120067384</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>110110052597</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>110120069817</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>110120069290</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>110120067732</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>110120069816</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>110120067724</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>110120067383</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>110120069577</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>110120070220</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>110120070020</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>110120067729</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>110120069953</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>110110037574</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>110120070034</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>110120070226</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>110120070031</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>110120070026</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>110120070032</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>110110037678</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>110120070022</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>110120069926</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>110120070229</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>110120070233</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>110120070018</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>110120070023</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>110120070228</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>110120070231</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>110120070021</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>110120068838</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>110120070227</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>110120070025</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>110120070230</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>110120070235</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>110120068841</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>110120070225</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>110120069923</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>110120068853</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>110120068848</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>110120070224</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>110120068973</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>110120068975</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>110120068699</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>110120068964</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>110120068974</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>110120068707</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>110120069930</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>110120068779</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>110120068970</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>110120069544</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>110120068969</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>110120067863</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>110120067865</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>110120067864</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>110120068704</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>110120067870</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>110120067875</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>110120068703</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>110120067869</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>110120069565</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>110120069803</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>110120067510</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>110120069812</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>110120069811</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>110120069799</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>110120067501</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>110120069549</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>110120069546</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>110120067504</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>110120067500</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>110120069944</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>110120067498</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>110120069561</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>110120069939</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>110120069551</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>110120069545</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>110120069547</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>110120069938</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>110120069805</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>110120069554</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>110120067507</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>110120069806</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>110120067511</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>110120069638</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>110120069300</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>110120069556</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>110120069573</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>110120069646</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>110120067514</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>110120067503</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>110120067499</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>110120067871</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>110120067505</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>110120069550</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>110120067720</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>110110038331</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>110120069648</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>110120069370</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>110120069574</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>110120069362</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>110120069552</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>110120069539</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>110120069113</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>110120067517</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>110120069102</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>110120069553</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>110120069114</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>110120069548</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>110120068301</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>110120067736</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
